--- a/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
+++ b/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -642,42 +642,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>35°</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25°</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>36°</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26°</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Extremo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>36°</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21°</t>
+          <t>22°</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21°</t>
+          <t>22°</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>35°</t>
+          <t>34°</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">

--- a/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
+++ b/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,57 +503,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ter. 24</t>
+          <t>qua. 25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>35°</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26°</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>34°</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>25°</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Extremo</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>34°</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19°</t>
+          <t>21°</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -570,57 +570,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qua. 25</t>
+          <t>qui. 26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>35°</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26°</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>36°</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26°</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Extremo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>35°</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20°</t>
+          <t>22°</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -637,22 +637,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qui. 26</t>
+          <t>sex. 27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35°</t>
+          <t>34°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>26°</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -672,22 +672,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>36°</t>
+          <t>29°</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>16°</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -704,12 +704,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sex. 27</t>
+          <t>sáb. 28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>35°</t>
+          <t>34°</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -739,27 +739,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28°</t>
+          <t>21°</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16°</t>
+          <t>15°</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10 de 11</t>
+          <t>7 de 11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -771,44 +771,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sáb. 28</t>
+          <t>dom. 29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>32°</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>25°</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>26°</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Extremo</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>16°</t>
@@ -816,7 +816,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8 de 11</t>
+          <t>10 de 11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -838,12 +838,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dom. 29</t>
+          <t>seg. 30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33°</t>
+          <t>32°</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -873,22 +873,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>32°</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16°</t>
+          <t>19°</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>67%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>86%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -905,12 +905,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>seg. 30</t>
+          <t>ter. 01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>31°</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -940,27 +940,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32°</t>
+          <t>35°</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>19°</t>
+          <t>21°</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>52%</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10 de 11</t>
+          <t>Extremo</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ter. 01</t>
+          <t>qua. 02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32°</t>
+          <t>34°</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>35°</t>
+          <t>36°</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21°</t>
+          <t>20°</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1039,12 +1039,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>qua. 02</t>
+          <t>qui. 03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>33°</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1054,50 +1054,117 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>32°</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sex. 04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>33°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>25°</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>69%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Extremo</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0 de 11</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>32°</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0 de 11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>29°</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>19°</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10 de 11</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Extremo</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>0 de 11</t>
         </is>

--- a/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
+++ b/bot-coleta-de-dados-climáticos/dados_comparados_manaus_sp.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>35°</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -580,17 +580,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -610,17 +610,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22°</t>
+          <t>20°</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -642,22 +642,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>35°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,22 +672,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29°</t>
+          <t>28°</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16°</t>
+          <t>15°</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -709,22 +709,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>33°</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26°</t>
+          <t>25°</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7 de 11</t>
+          <t>8 de 11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>24°</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21°</t>
+          <t>22°</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -977,22 +977,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34°</t>
+          <t>33°</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>24°</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36°</t>
+          <t>33°</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33°</t>
+          <t>32°</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25°</t>
+          <t>24°</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32°</t>
+          <t>31°</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>33°</t>
+          <t>32°</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>29°</t>
+          <t>31°</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
